--- a/Lists/Definitieve lijsten/Oesophagus/Oesophagus.xlsx
+++ b/Lists/Definitieve lijsten/Oesophagus/Oesophagus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="6330" windowHeight="2895"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="6330" windowHeight="2895" firstSheet="52" activeTab="62"/>
   </bookViews>
   <sheets>
     <sheet name="2.6  Esophagus" sheetId="12" r:id="rId1"/>
@@ -5070,6 +5070,100 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5103,88 +5197,10 @@
     <xf numFmtId="0" fontId="39" fillId="21" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5247,22 +5263,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -5705,11 +5705,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT854"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5743,9 +5743,9 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="691"/>
-      <c r="L1" s="691"/>
-      <c r="M1" s="690"/>
+      <c r="K1" s="682"/>
+      <c r="L1" s="682"/>
+      <c r="M1" s="680"/>
       <c r="Q1" s="221"/>
     </row>
     <row r="2" spans="1:46" ht="31.5" x14ac:dyDescent="0.5">
@@ -5763,25 +5763,25 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="690"/>
+      <c r="M2" s="680"/>
       <c r="Q2" s="221"/>
     </row>
     <row r="3" spans="1:46" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="695" t="s">
+      <c r="A3" s="686" t="s">
         <v>427</v>
       </c>
-      <c r="B3" s="696"/>
-      <c r="C3" s="696"/>
-      <c r="D3" s="696"/>
-      <c r="E3" s="696"/>
-      <c r="F3" s="696"/>
-      <c r="G3" s="696"/>
-      <c r="H3" s="696"/>
-      <c r="I3" s="696"/>
-      <c r="J3" s="696"/>
-      <c r="K3" s="696"/>
-      <c r="L3" s="697"/>
-      <c r="M3" s="690"/>
+      <c r="B3" s="687"/>
+      <c r="C3" s="687"/>
+      <c r="D3" s="687"/>
+      <c r="E3" s="687"/>
+      <c r="F3" s="687"/>
+      <c r="G3" s="687"/>
+      <c r="H3" s="687"/>
+      <c r="I3" s="687"/>
+      <c r="J3" s="687"/>
+      <c r="K3" s="687"/>
+      <c r="L3" s="688"/>
+      <c r="M3" s="680"/>
       <c r="Q3" s="221"/>
     </row>
     <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5801,23 +5801,23 @@
       <c r="Q4" s="147"/>
     </row>
     <row r="5" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="703" t="s">
+      <c r="A5" s="694" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="704"/>
-      <c r="C5" s="698" t="s">
+      <c r="B5" s="695"/>
+      <c r="C5" s="689" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="699"/>
-      <c r="E5" s="699"/>
-      <c r="F5" s="699"/>
-      <c r="G5" s="699"/>
-      <c r="H5" s="699"/>
-      <c r="I5" s="699"/>
-      <c r="J5" s="699"/>
-      <c r="K5" s="699"/>
-      <c r="L5" s="700"/>
-      <c r="M5" s="688"/>
+      <c r="D5" s="690"/>
+      <c r="E5" s="690"/>
+      <c r="F5" s="690"/>
+      <c r="G5" s="690"/>
+      <c r="H5" s="690"/>
+      <c r="I5" s="690"/>
+      <c r="J5" s="690"/>
+      <c r="K5" s="690"/>
+      <c r="L5" s="691"/>
+      <c r="M5" s="681"/>
       <c r="N5" s="137" t="s">
         <v>233</v>
       </c>
@@ -5830,25 +5830,25 @@
       <c r="Q5" s="217"/>
     </row>
     <row r="6" spans="1:46" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="705"/>
-      <c r="B6" s="706"/>
-      <c r="C6" s="701" t="s">
+      <c r="A6" s="696"/>
+      <c r="B6" s="697"/>
+      <c r="C6" s="692" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="701" t="s">
+      <c r="D6" s="692" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="692" t="s">
+      <c r="E6" s="683" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="693"/>
-      <c r="G6" s="693"/>
-      <c r="H6" s="693"/>
-      <c r="I6" s="693"/>
-      <c r="J6" s="693"/>
-      <c r="K6" s="693"/>
-      <c r="L6" s="694"/>
-      <c r="M6" s="688"/>
+      <c r="F6" s="684"/>
+      <c r="G6" s="684"/>
+      <c r="H6" s="684"/>
+      <c r="I6" s="684"/>
+      <c r="J6" s="684"/>
+      <c r="K6" s="684"/>
+      <c r="L6" s="685"/>
+      <c r="M6" s="681"/>
       <c r="N6" s="9"/>
       <c r="O6" s="144"/>
       <c r="P6" s="141"/>
@@ -5884,10 +5884,10 @@
       <c r="AT6" s="144"/>
     </row>
     <row r="7" spans="1:46" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="705"/>
-      <c r="B7" s="706"/>
-      <c r="C7" s="702"/>
-      <c r="D7" s="702"/>
+      <c r="A7" s="696"/>
+      <c r="B7" s="697"/>
+      <c r="C7" s="693"/>
+      <c r="D7" s="693"/>
       <c r="E7" s="256" t="s">
         <v>207</v>
       </c>
@@ -5912,7 +5912,7 @@
       <c r="L7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="688"/>
+      <c r="M7" s="681"/>
       <c r="N7" s="9"/>
       <c r="O7" s="144"/>
       <c r="P7" s="141"/>
@@ -5948,8 +5948,8 @@
       <c r="AT7" s="144"/>
     </row>
     <row r="8" spans="1:46" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="707"/>
-      <c r="B8" s="708"/>
+      <c r="A8" s="698"/>
+      <c r="B8" s="699"/>
       <c r="C8" s="7" t="s">
         <v>508</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="L8" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="M8" s="688"/>
+      <c r="M8" s="681"/>
       <c r="N8" s="9"/>
       <c r="O8" s="144"/>
       <c r="P8" s="141"/>
@@ -7486,7 +7486,7 @@
       <c r="AT35" s="575"/>
     </row>
     <row r="36" spans="1:46" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="734" t="s">
+      <c r="A36" s="675" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="350" t="s">
@@ -7548,7 +7548,7 @@
       <c r="AT36" s="575"/>
     </row>
     <row r="37" spans="1:46" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="734" t="s">
+      <c r="A37" s="675" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="350" t="s">
@@ -7610,7 +7610,7 @@
       <c r="AT37" s="575"/>
     </row>
     <row r="38" spans="1:46" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="734" t="s">
+      <c r="A38" s="675" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="350" t="s">
@@ -7672,7 +7672,7 @@
       <c r="AT38" s="575"/>
     </row>
     <row r="39" spans="1:46" s="574" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="734" t="s">
+      <c r="A39" s="675" t="s">
         <v>673</v>
       </c>
       <c r="B39" s="350" t="s">
@@ -7726,7 +7726,7 @@
       <c r="AT39" s="575"/>
     </row>
     <row r="40" spans="1:46" s="186" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="735" t="s">
+      <c r="A40" s="676" t="s">
         <v>669</v>
       </c>
       <c r="B40" s="350" t="s">
@@ -7780,7 +7780,7 @@
       <c r="AT40" s="575"/>
     </row>
     <row r="41" spans="1:46" s="186" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="735" t="s">
+      <c r="A41" s="676" t="s">
         <v>670</v>
       </c>
       <c r="B41" s="350" t="s">
@@ -8270,7 +8270,7 @@
       <c r="AT48" s="575"/>
     </row>
     <row r="49" spans="1:46" s="574" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="733" t="s">
+      <c r="A49" s="674" t="s">
         <v>679</v>
       </c>
       <c r="B49" s="350" t="s">
@@ -8564,7 +8564,7 @@
       <c r="J54" s="188"/>
       <c r="K54" s="188"/>
       <c r="L54" s="174"/>
-      <c r="M54" s="689"/>
+      <c r="M54" s="702"/>
       <c r="N54" s="138" t="s">
         <v>234</v>
       </c>
@@ -8624,7 +8624,7 @@
       <c r="J55" s="188"/>
       <c r="K55" s="188"/>
       <c r="L55" s="174"/>
-      <c r="M55" s="688"/>
+      <c r="M55" s="681"/>
       <c r="N55" s="138" t="s">
         <v>234</v>
       </c>
@@ -8684,7 +8684,7 @@
       <c r="J56" s="188"/>
       <c r="K56" s="188"/>
       <c r="L56" s="174"/>
-      <c r="M56" s="688"/>
+      <c r="M56" s="681"/>
       <c r="N56" s="138" t="s">
         <v>234</v>
       </c>
@@ -8744,7 +8744,7 @@
       <c r="J57" s="188"/>
       <c r="K57" s="188"/>
       <c r="L57" s="174"/>
-      <c r="M57" s="688"/>
+      <c r="M57" s="681"/>
       <c r="N57" s="138" t="s">
         <v>234</v>
       </c>
@@ -8804,7 +8804,7 @@
       <c r="J58" s="188"/>
       <c r="K58" s="188"/>
       <c r="L58" s="174"/>
-      <c r="M58" s="688"/>
+      <c r="M58" s="681"/>
       <c r="N58" s="138" t="s">
         <v>234</v>
       </c>
@@ -8864,7 +8864,7 @@
       <c r="J59" s="188"/>
       <c r="K59" s="188"/>
       <c r="L59" s="174"/>
-      <c r="M59" s="688"/>
+      <c r="M59" s="681"/>
       <c r="N59" s="138" t="s">
         <v>234</v>
       </c>
@@ -8924,7 +8924,7 @@
       <c r="J60" s="188"/>
       <c r="K60" s="188"/>
       <c r="L60" s="174"/>
-      <c r="M60" s="688"/>
+      <c r="M60" s="681"/>
       <c r="N60" s="138" t="s">
         <v>234</v>
       </c>
@@ -8984,7 +8984,7 @@
       <c r="J61" s="188"/>
       <c r="K61" s="188"/>
       <c r="L61" s="174"/>
-      <c r="M61" s="688"/>
+      <c r="M61" s="681"/>
       <c r="N61" s="143" t="s">
         <v>235</v>
       </c>
@@ -9044,7 +9044,7 @@
       <c r="J62" s="188"/>
       <c r="K62" s="188"/>
       <c r="L62" s="174"/>
-      <c r="M62" s="688"/>
+      <c r="M62" s="681"/>
       <c r="N62" s="143" t="s">
         <v>235</v>
       </c>
@@ -9104,7 +9104,7 @@
       <c r="J63" s="188"/>
       <c r="K63" s="188"/>
       <c r="L63" s="174"/>
-      <c r="M63" s="688"/>
+      <c r="M63" s="681"/>
       <c r="N63" s="143" t="s">
         <v>235</v>
       </c>
@@ -9164,7 +9164,7 @@
       <c r="J64" s="188"/>
       <c r="K64" s="188"/>
       <c r="L64" s="174"/>
-      <c r="M64" s="688"/>
+      <c r="M64" s="681"/>
       <c r="N64" s="143" t="s">
         <v>235</v>
       </c>
@@ -9224,7 +9224,7 @@
       <c r="J65" s="188"/>
       <c r="K65" s="188"/>
       <c r="L65" s="174"/>
-      <c r="M65" s="688"/>
+      <c r="M65" s="681"/>
       <c r="N65" s="143" t="s">
         <v>235</v>
       </c>
@@ -9284,7 +9284,7 @@
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="174"/>
-      <c r="M66" s="688"/>
+      <c r="M66" s="681"/>
       <c r="N66" s="143" t="s">
         <v>235</v>
       </c>
@@ -9344,7 +9344,7 @@
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="174"/>
-      <c r="M67" s="688"/>
+      <c r="M67" s="681"/>
       <c r="N67" s="143" t="s">
         <v>235</v>
       </c>
@@ -9610,20 +9610,20 @@
       <c r="AT71" s="418"/>
     </row>
     <row r="72" spans="1:46" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="671" t="s">
+      <c r="A72" s="703" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="675"/>
-      <c r="C72" s="675"/>
-      <c r="D72" s="675"/>
-      <c r="E72" s="675"/>
-      <c r="F72" s="675"/>
-      <c r="G72" s="675"/>
-      <c r="H72" s="675"/>
-      <c r="I72" s="675"/>
-      <c r="J72" s="675"/>
-      <c r="K72" s="675"/>
-      <c r="L72" s="672"/>
+      <c r="B72" s="707"/>
+      <c r="C72" s="707"/>
+      <c r="D72" s="707"/>
+      <c r="E72" s="707"/>
+      <c r="F72" s="707"/>
+      <c r="G72" s="707"/>
+      <c r="H72" s="707"/>
+      <c r="I72" s="707"/>
+      <c r="J72" s="707"/>
+      <c r="K72" s="707"/>
+      <c r="L72" s="704"/>
       <c r="M72" s="119"/>
       <c r="N72" s="10"/>
       <c r="O72" s="145"/>
@@ -9678,7 +9678,7 @@
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="174"/>
-      <c r="M73" s="688"/>
+      <c r="M73" s="681"/>
       <c r="N73" s="138" t="s">
         <v>234</v>
       </c>
@@ -9738,7 +9738,7 @@
       <c r="J74" s="188"/>
       <c r="K74" s="188"/>
       <c r="L74" s="174"/>
-      <c r="M74" s="688"/>
+      <c r="M74" s="681"/>
       <c r="N74" s="138" t="s">
         <v>234</v>
       </c>
@@ -9798,7 +9798,7 @@
       <c r="J75" s="188"/>
       <c r="K75" s="188"/>
       <c r="L75" s="174"/>
-      <c r="M75" s="688"/>
+      <c r="M75" s="681"/>
       <c r="N75" s="138" t="s">
         <v>234</v>
       </c>
@@ -9858,7 +9858,7 @@
       <c r="J76" s="188"/>
       <c r="K76" s="188"/>
       <c r="L76" s="174"/>
-      <c r="M76" s="688"/>
+      <c r="M76" s="681"/>
       <c r="N76" s="143" t="s">
         <v>235</v>
       </c>
@@ -9918,7 +9918,7 @@
       <c r="J77" s="188"/>
       <c r="K77" s="188"/>
       <c r="L77" s="174"/>
-      <c r="M77" s="688"/>
+      <c r="M77" s="681"/>
       <c r="N77" s="138" t="s">
         <v>234</v>
       </c>
@@ -9960,21 +9960,21 @@
       <c r="AT77" s="575"/>
     </row>
     <row r="78" spans="1:46" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="679" t="s">
+      <c r="A78" s="711" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="680"/>
-      <c r="C78" s="680"/>
-      <c r="D78" s="680"/>
-      <c r="E78" s="680"/>
-      <c r="F78" s="680"/>
-      <c r="G78" s="680"/>
-      <c r="H78" s="680"/>
-      <c r="I78" s="680"/>
-      <c r="J78" s="680"/>
-      <c r="K78" s="680"/>
-      <c r="L78" s="681"/>
-      <c r="M78" s="688"/>
+      <c r="B78" s="712"/>
+      <c r="C78" s="712"/>
+      <c r="D78" s="712"/>
+      <c r="E78" s="712"/>
+      <c r="F78" s="712"/>
+      <c r="G78" s="712"/>
+      <c r="H78" s="712"/>
+      <c r="I78" s="712"/>
+      <c r="J78" s="712"/>
+      <c r="K78" s="712"/>
+      <c r="L78" s="713"/>
+      <c r="M78" s="681"/>
       <c r="N78" s="6"/>
       <c r="O78" s="187"/>
       <c r="P78" s="140"/>
@@ -10028,7 +10028,7 @@
       <c r="J79" s="188"/>
       <c r="K79" s="188"/>
       <c r="L79" s="174"/>
-      <c r="M79" s="688"/>
+      <c r="M79" s="681"/>
       <c r="N79" s="143" t="s">
         <v>235</v>
       </c>
@@ -10088,7 +10088,7 @@
       <c r="J80" s="188"/>
       <c r="K80" s="188"/>
       <c r="L80" s="174"/>
-      <c r="M80" s="688"/>
+      <c r="M80" s="681"/>
       <c r="N80" s="143" t="s">
         <v>235</v>
       </c>
@@ -10148,7 +10148,7 @@
       <c r="J81" s="188"/>
       <c r="K81" s="188"/>
       <c r="L81" s="174"/>
-      <c r="M81" s="688"/>
+      <c r="M81" s="681"/>
       <c r="N81" s="143" t="s">
         <v>235</v>
       </c>
@@ -10208,7 +10208,7 @@
       <c r="J82" s="188"/>
       <c r="K82" s="188"/>
       <c r="L82" s="174"/>
-      <c r="M82" s="688"/>
+      <c r="M82" s="681"/>
       <c r="N82" s="143" t="s">
         <v>235</v>
       </c>
@@ -10268,7 +10268,7 @@
       <c r="J83" s="188"/>
       <c r="K83" s="188"/>
       <c r="L83" s="174"/>
-      <c r="M83" s="688"/>
+      <c r="M83" s="681"/>
       <c r="N83" s="143" t="s">
         <v>235</v>
       </c>
@@ -10310,20 +10310,20 @@
       <c r="AT83" s="575"/>
     </row>
     <row r="84" spans="1:46" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="679" t="s">
+      <c r="A84" s="711" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="680"/>
-      <c r="C84" s="680"/>
-      <c r="D84" s="680"/>
-      <c r="E84" s="680"/>
-      <c r="F84" s="680"/>
-      <c r="G84" s="680"/>
-      <c r="H84" s="680"/>
-      <c r="I84" s="680"/>
-      <c r="J84" s="680"/>
-      <c r="K84" s="680"/>
-      <c r="L84" s="681"/>
+      <c r="B84" s="712"/>
+      <c r="C84" s="712"/>
+      <c r="D84" s="712"/>
+      <c r="E84" s="712"/>
+      <c r="F84" s="712"/>
+      <c r="G84" s="712"/>
+      <c r="H84" s="712"/>
+      <c r="I84" s="712"/>
+      <c r="J84" s="712"/>
+      <c r="K84" s="712"/>
+      <c r="L84" s="713"/>
       <c r="M84" s="135"/>
       <c r="N84" s="6"/>
       <c r="O84" s="187"/>
@@ -10732,20 +10732,20 @@
       <c r="AT91" s="418"/>
     </row>
     <row r="92" spans="1:46" s="186" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="671" t="s">
+      <c r="A92" s="703" t="s">
         <v>319</v>
       </c>
-      <c r="B92" s="675"/>
-      <c r="C92" s="675"/>
-      <c r="D92" s="675"/>
-      <c r="E92" s="675"/>
-      <c r="F92" s="675"/>
-      <c r="G92" s="675"/>
-      <c r="H92" s="675"/>
-      <c r="I92" s="675"/>
-      <c r="J92" s="675"/>
-      <c r="K92" s="675"/>
-      <c r="L92" s="672"/>
+      <c r="B92" s="707"/>
+      <c r="C92" s="707"/>
+      <c r="D92" s="707"/>
+      <c r="E92" s="707"/>
+      <c r="F92" s="707"/>
+      <c r="G92" s="707"/>
+      <c r="H92" s="707"/>
+      <c r="I92" s="707"/>
+      <c r="J92" s="707"/>
+      <c r="K92" s="707"/>
+      <c r="L92" s="704"/>
       <c r="M92" s="277"/>
       <c r="N92" s="406"/>
       <c r="O92" s="406"/>
@@ -11854,20 +11854,20 @@
       <c r="AT112" s="575"/>
     </row>
     <row r="113" spans="1:46" s="186" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="676" t="s">
+      <c r="A113" s="708" t="s">
         <v>338</v>
       </c>
-      <c r="B113" s="677"/>
-      <c r="C113" s="677"/>
-      <c r="D113" s="677"/>
-      <c r="E113" s="677"/>
-      <c r="F113" s="677"/>
-      <c r="G113" s="677"/>
-      <c r="H113" s="677"/>
-      <c r="I113" s="677"/>
-      <c r="J113" s="677"/>
-      <c r="K113" s="677"/>
-      <c r="L113" s="678"/>
+      <c r="B113" s="709"/>
+      <c r="C113" s="709"/>
+      <c r="D113" s="709"/>
+      <c r="E113" s="709"/>
+      <c r="F113" s="709"/>
+      <c r="G113" s="709"/>
+      <c r="H113" s="709"/>
+      <c r="I113" s="709"/>
+      <c r="J113" s="709"/>
+      <c r="K113" s="709"/>
+      <c r="L113" s="710"/>
       <c r="M113" s="277"/>
       <c r="N113" s="187"/>
       <c r="O113" s="187"/>
@@ -13384,10 +13384,10 @@
       <c r="AT138" s="575"/>
     </row>
     <row r="139" spans="1:46" s="347" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="671" t="s">
+      <c r="A139" s="703" t="s">
         <v>504</v>
       </c>
-      <c r="B139" s="672"/>
+      <c r="B139" s="704"/>
       <c r="C139" s="579"/>
       <c r="D139" s="566"/>
       <c r="E139" s="566"/>
@@ -13862,7 +13862,7 @@
       <c r="J147" s="188"/>
       <c r="K147" s="188"/>
       <c r="L147" s="174"/>
-      <c r="M147" s="688"/>
+      <c r="M147" s="681"/>
       <c r="N147" s="143" t="s">
         <v>235</v>
       </c>
@@ -13922,7 +13922,7 @@
       <c r="J148" s="355"/>
       <c r="K148" s="355"/>
       <c r="L148" s="356"/>
-      <c r="M148" s="688"/>
+      <c r="M148" s="681"/>
       <c r="N148" s="143" t="s">
         <v>235</v>
       </c>
@@ -15496,7 +15496,7 @@
       <c r="AT177" s="418"/>
     </row>
     <row r="178" spans="1:46" s="417" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="732" t="s">
+      <c r="A178" s="673" t="s">
         <v>685</v>
       </c>
       <c r="B178" s="350" t="s">
@@ -17904,15 +17904,15 @@
       <c r="C225" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="D225" s="682"/>
-      <c r="E225" s="682"/>
-      <c r="F225" s="682"/>
-      <c r="G225" s="682"/>
-      <c r="H225" s="682"/>
-      <c r="I225" s="682"/>
-      <c r="J225" s="682"/>
-      <c r="K225" s="682"/>
-      <c r="L225" s="683"/>
+      <c r="D225" s="678"/>
+      <c r="E225" s="678"/>
+      <c r="F225" s="678"/>
+      <c r="G225" s="678"/>
+      <c r="H225" s="678"/>
+      <c r="I225" s="678"/>
+      <c r="J225" s="678"/>
+      <c r="K225" s="678"/>
+      <c r="L225" s="679"/>
       <c r="M225" s="365"/>
       <c r="N225" s="143" t="s">
         <v>235</v>
@@ -17966,15 +17966,15 @@
       <c r="C227" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="D227" s="682"/>
-      <c r="E227" s="682"/>
-      <c r="F227" s="682"/>
-      <c r="G227" s="682"/>
-      <c r="H227" s="682"/>
-      <c r="I227" s="682"/>
-      <c r="J227" s="682"/>
-      <c r="K227" s="682"/>
-      <c r="L227" s="683"/>
+      <c r="D227" s="678"/>
+      <c r="E227" s="678"/>
+      <c r="F227" s="678"/>
+      <c r="G227" s="678"/>
+      <c r="H227" s="678"/>
+      <c r="I227" s="678"/>
+      <c r="J227" s="678"/>
+      <c r="K227" s="678"/>
+      <c r="L227" s="679"/>
       <c r="M227" s="365"/>
       <c r="N227" s="143" t="s">
         <v>235</v>
@@ -18000,14 +18000,14 @@
       <c r="D228" s="110"/>
       <c r="E228" s="110"/>
       <c r="F228" s="111"/>
-      <c r="G228" s="684" t="s">
+      <c r="G228" s="700" t="s">
         <v>29</v>
       </c>
-      <c r="H228" s="685"/>
-      <c r="I228" s="685"/>
-      <c r="J228" s="685"/>
-      <c r="K228" s="685"/>
-      <c r="L228" s="685"/>
+      <c r="H228" s="701"/>
+      <c r="I228" s="701"/>
+      <c r="J228" s="701"/>
+      <c r="K228" s="701"/>
+      <c r="L228" s="701"/>
       <c r="M228" s="365"/>
       <c r="N228" s="143" t="s">
         <v>235</v>
@@ -18033,14 +18033,14 @@
       <c r="D229" s="411"/>
       <c r="E229" s="411"/>
       <c r="F229" s="412"/>
-      <c r="G229" s="684" t="s">
+      <c r="G229" s="700" t="s">
         <v>29</v>
       </c>
-      <c r="H229" s="685"/>
-      <c r="I229" s="685"/>
-      <c r="J229" s="685"/>
-      <c r="K229" s="685"/>
-      <c r="L229" s="685"/>
+      <c r="H229" s="701"/>
+      <c r="I229" s="701"/>
+      <c r="J229" s="701"/>
+      <c r="K229" s="701"/>
+      <c r="L229" s="701"/>
       <c r="M229" s="439"/>
       <c r="N229" s="373"/>
       <c r="O229" s="446"/>
@@ -18089,14 +18089,14 @@
       <c r="D230" s="110"/>
       <c r="E230" s="110"/>
       <c r="F230" s="111"/>
-      <c r="G230" s="684" t="s">
+      <c r="G230" s="700" t="s">
         <v>29</v>
       </c>
-      <c r="H230" s="685"/>
-      <c r="I230" s="685"/>
-      <c r="J230" s="685"/>
-      <c r="K230" s="685"/>
-      <c r="L230" s="685"/>
+      <c r="H230" s="701"/>
+      <c r="I230" s="701"/>
+      <c r="J230" s="701"/>
+      <c r="K230" s="701"/>
+      <c r="L230" s="701"/>
       <c r="M230" s="365"/>
       <c r="N230" s="432" t="s">
         <v>235</v>
@@ -18151,14 +18151,14 @@
       <c r="D231" s="411"/>
       <c r="E231" s="411"/>
       <c r="F231" s="412"/>
-      <c r="G231" s="684" t="s">
+      <c r="G231" s="700" t="s">
         <v>29</v>
       </c>
-      <c r="H231" s="685"/>
-      <c r="I231" s="685"/>
-      <c r="J231" s="685"/>
-      <c r="K231" s="685"/>
-      <c r="L231" s="685"/>
+      <c r="H231" s="701"/>
+      <c r="I231" s="701"/>
+      <c r="J231" s="701"/>
+      <c r="K231" s="701"/>
+      <c r="L231" s="701"/>
       <c r="M231" s="439"/>
       <c r="N231" s="373"/>
       <c r="O231" s="373"/>
@@ -18207,14 +18207,14 @@
       <c r="D232" s="410"/>
       <c r="E232" s="411"/>
       <c r="F232" s="412"/>
-      <c r="G232" s="684" t="s">
+      <c r="G232" s="700" t="s">
         <v>29</v>
       </c>
-      <c r="H232" s="685"/>
-      <c r="I232" s="685"/>
-      <c r="J232" s="685"/>
-      <c r="K232" s="685"/>
-      <c r="L232" s="685"/>
+      <c r="H232" s="701"/>
+      <c r="I232" s="701"/>
+      <c r="J232" s="701"/>
+      <c r="K232" s="701"/>
+      <c r="L232" s="701"/>
       <c r="M232" s="365"/>
       <c r="N232" s="432" t="s">
         <v>235</v>
@@ -18269,14 +18269,14 @@
       <c r="D233" s="411"/>
       <c r="E233" s="411"/>
       <c r="F233" s="411"/>
-      <c r="G233" s="685" t="s">
+      <c r="G233" s="701" t="s">
         <v>29</v>
       </c>
-      <c r="H233" s="685"/>
-      <c r="I233" s="685"/>
-      <c r="J233" s="685"/>
-      <c r="K233" s="685"/>
-      <c r="L233" s="685"/>
+      <c r="H233" s="701"/>
+      <c r="I233" s="701"/>
+      <c r="J233" s="701"/>
+      <c r="K233" s="701"/>
+      <c r="L233" s="701"/>
       <c r="M233" s="148"/>
       <c r="N233" s="373"/>
       <c r="O233" s="373"/>
@@ -18325,14 +18325,14 @@
       <c r="D234" s="462"/>
       <c r="E234" s="462"/>
       <c r="F234" s="462"/>
-      <c r="G234" s="685" t="s">
+      <c r="G234" s="701" t="s">
         <v>29</v>
       </c>
-      <c r="H234" s="685"/>
-      <c r="I234" s="685"/>
-      <c r="J234" s="685"/>
-      <c r="K234" s="685"/>
-      <c r="L234" s="685"/>
+      <c r="H234" s="701"/>
+      <c r="I234" s="701"/>
+      <c r="J234" s="701"/>
+      <c r="K234" s="701"/>
+      <c r="L234" s="701"/>
       <c r="M234" s="148"/>
       <c r="N234" s="363"/>
       <c r="O234" s="363"/>
@@ -18381,14 +18381,14 @@
       <c r="D235" s="462"/>
       <c r="E235" s="462"/>
       <c r="F235" s="462"/>
-      <c r="G235" s="685" t="s">
+      <c r="G235" s="701" t="s">
         <v>29</v>
       </c>
-      <c r="H235" s="685"/>
-      <c r="I235" s="685"/>
-      <c r="J235" s="685"/>
-      <c r="K235" s="685"/>
-      <c r="L235" s="685"/>
+      <c r="H235" s="701"/>
+      <c r="I235" s="701"/>
+      <c r="J235" s="701"/>
+      <c r="K235" s="701"/>
+      <c r="L235" s="701"/>
       <c r="M235" s="148"/>
       <c r="N235" s="363"/>
       <c r="O235" s="363"/>
@@ -18428,7 +18428,7 @@
       <c r="A236" s="501" t="s">
         <v>542</v>
       </c>
-      <c r="B236" s="730" t="s">
+      <c r="B236" s="671" t="s">
         <v>11</v>
       </c>
       <c r="C236" s="612" t="s">
@@ -18437,14 +18437,14 @@
       <c r="D236" s="610"/>
       <c r="E236" s="610"/>
       <c r="F236" s="610"/>
-      <c r="G236" s="685" t="s">
+      <c r="G236" s="701" t="s">
         <v>29</v>
       </c>
-      <c r="H236" s="685"/>
-      <c r="I236" s="685"/>
-      <c r="J236" s="685"/>
-      <c r="K236" s="685"/>
-      <c r="L236" s="685"/>
+      <c r="H236" s="701"/>
+      <c r="I236" s="701"/>
+      <c r="J236" s="701"/>
+      <c r="K236" s="701"/>
+      <c r="L236" s="701"/>
       <c r="M236" s="148"/>
       <c r="N236" s="363"/>
       <c r="O236" s="363"/>
@@ -18514,14 +18514,14 @@
       <c r="D238" s="428"/>
       <c r="E238" s="110"/>
       <c r="F238" s="610"/>
-      <c r="G238" s="685" t="s">
+      <c r="G238" s="701" t="s">
         <v>29</v>
       </c>
-      <c r="H238" s="685"/>
-      <c r="I238" s="685"/>
-      <c r="J238" s="685"/>
-      <c r="K238" s="685"/>
-      <c r="L238" s="685"/>
+      <c r="H238" s="701"/>
+      <c r="I238" s="701"/>
+      <c r="J238" s="701"/>
+      <c r="K238" s="701"/>
+      <c r="L238" s="701"/>
       <c r="M238" s="366"/>
       <c r="N238" s="143" t="s">
         <v>235</v>
@@ -18576,14 +18576,14 @@
       <c r="D239" s="280"/>
       <c r="E239" s="280"/>
       <c r="F239" s="280"/>
-      <c r="G239" s="685" t="s">
+      <c r="G239" s="701" t="s">
         <v>29</v>
       </c>
-      <c r="H239" s="685"/>
-      <c r="I239" s="685"/>
-      <c r="J239" s="685"/>
-      <c r="K239" s="685"/>
-      <c r="L239" s="685"/>
+      <c r="H239" s="701"/>
+      <c r="I239" s="701"/>
+      <c r="J239" s="701"/>
+      <c r="K239" s="701"/>
+      <c r="L239" s="701"/>
       <c r="M239" s="279"/>
       <c r="N239" s="373"/>
       <c r="O239" s="373"/>
@@ -18632,14 +18632,14 @@
       <c r="D240" s="110"/>
       <c r="E240" s="110"/>
       <c r="F240" s="610"/>
-      <c r="G240" s="685" t="s">
+      <c r="G240" s="701" t="s">
         <v>29</v>
       </c>
-      <c r="H240" s="685"/>
-      <c r="I240" s="685"/>
-      <c r="J240" s="685"/>
-      <c r="K240" s="685"/>
-      <c r="L240" s="685"/>
+      <c r="H240" s="701"/>
+      <c r="I240" s="701"/>
+      <c r="J240" s="701"/>
+      <c r="K240" s="701"/>
+      <c r="L240" s="701"/>
       <c r="M240" s="366"/>
       <c r="N240" s="143" t="s">
         <v>235</v>
@@ -18694,14 +18694,14 @@
       <c r="D241" s="280"/>
       <c r="E241" s="280"/>
       <c r="F241" s="280"/>
-      <c r="G241" s="685" t="s">
+      <c r="G241" s="701" t="s">
         <v>29</v>
       </c>
-      <c r="H241" s="685"/>
-      <c r="I241" s="685"/>
-      <c r="J241" s="685"/>
-      <c r="K241" s="685"/>
-      <c r="L241" s="685"/>
+      <c r="H241" s="701"/>
+      <c r="I241" s="701"/>
+      <c r="J241" s="701"/>
+      <c r="K241" s="701"/>
+      <c r="L241" s="701"/>
       <c r="M241" s="279"/>
       <c r="N241" s="373"/>
       <c r="O241" s="373"/>
@@ -18747,15 +18747,15 @@
       <c r="C242" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="D242" s="682"/>
-      <c r="E242" s="682"/>
-      <c r="F242" s="682"/>
-      <c r="G242" s="682"/>
-      <c r="H242" s="682"/>
-      <c r="I242" s="682"/>
-      <c r="J242" s="682"/>
-      <c r="K242" s="682"/>
-      <c r="L242" s="683"/>
+      <c r="D242" s="678"/>
+      <c r="E242" s="678"/>
+      <c r="F242" s="678"/>
+      <c r="G242" s="678"/>
+      <c r="H242" s="678"/>
+      <c r="I242" s="678"/>
+      <c r="J242" s="678"/>
+      <c r="K242" s="678"/>
+      <c r="L242" s="679"/>
       <c r="M242" s="365"/>
       <c r="N242" s="143" t="s">
         <v>235</v>
@@ -18778,15 +18778,15 @@
       <c r="C243" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="D243" s="682"/>
-      <c r="E243" s="682"/>
-      <c r="F243" s="682"/>
-      <c r="G243" s="682"/>
-      <c r="H243" s="682"/>
-      <c r="I243" s="682"/>
-      <c r="J243" s="682"/>
-      <c r="K243" s="682"/>
-      <c r="L243" s="683"/>
+      <c r="D243" s="678"/>
+      <c r="E243" s="678"/>
+      <c r="F243" s="678"/>
+      <c r="G243" s="678"/>
+      <c r="H243" s="678"/>
+      <c r="I243" s="678"/>
+      <c r="J243" s="678"/>
+      <c r="K243" s="678"/>
+      <c r="L243" s="679"/>
       <c r="M243" s="365"/>
       <c r="N243" s="143" t="s">
         <v>235</v>
@@ -18809,15 +18809,15 @@
       <c r="C244" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="D244" s="682"/>
-      <c r="E244" s="682"/>
-      <c r="F244" s="682"/>
-      <c r="G244" s="682"/>
-      <c r="H244" s="682"/>
-      <c r="I244" s="682"/>
-      <c r="J244" s="682"/>
-      <c r="K244" s="682"/>
-      <c r="L244" s="683"/>
+      <c r="D244" s="678"/>
+      <c r="E244" s="678"/>
+      <c r="F244" s="678"/>
+      <c r="G244" s="678"/>
+      <c r="H244" s="678"/>
+      <c r="I244" s="678"/>
+      <c r="J244" s="678"/>
+      <c r="K244" s="678"/>
+      <c r="L244" s="679"/>
       <c r="M244" s="365"/>
       <c r="N244" s="143" t="s">
         <v>235</v>
@@ -18840,15 +18840,15 @@
       <c r="C245" s="407" t="s">
         <v>28</v>
       </c>
-      <c r="D245" s="682"/>
-      <c r="E245" s="682"/>
-      <c r="F245" s="682"/>
-      <c r="G245" s="682"/>
-      <c r="H245" s="682"/>
-      <c r="I245" s="682"/>
-      <c r="J245" s="682"/>
-      <c r="K245" s="682"/>
-      <c r="L245" s="683"/>
+      <c r="D245" s="678"/>
+      <c r="E245" s="678"/>
+      <c r="F245" s="678"/>
+      <c r="G245" s="678"/>
+      <c r="H245" s="678"/>
+      <c r="I245" s="678"/>
+      <c r="J245" s="678"/>
+      <c r="K245" s="678"/>
+      <c r="L245" s="679"/>
       <c r="M245" s="365"/>
       <c r="N245" s="143" t="s">
         <v>235</v>
@@ -19000,10 +19000,10 @@
       <c r="A249" s="521" t="s">
         <v>394</v>
       </c>
-      <c r="B249" s="686" t="s">
+      <c r="B249" s="714" t="s">
         <v>395</v>
       </c>
-      <c r="C249" s="687"/>
+      <c r="C249" s="715"/>
       <c r="D249" s="280"/>
       <c r="E249" s="280"/>
       <c r="F249" s="280"/>
@@ -19689,7 +19689,7 @@
       <c r="L262" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M262" s="688"/>
+      <c r="M262" s="681"/>
       <c r="N262" s="143" t="s">
         <v>235</v>
       </c>
@@ -19736,7 +19736,7 @@
       <c r="L263" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M263" s="688"/>
+      <c r="M263" s="681"/>
       <c r="N263" s="143" t="s">
         <v>235</v>
       </c>
@@ -19843,7 +19843,7 @@
       <c r="Q265" s="147"/>
     </row>
     <row r="266" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="731" t="s">
+      <c r="A266" s="672" t="s">
         <v>550</v>
       </c>
       <c r="B266" s="106"/>
@@ -19886,17 +19886,17 @@
         <v>508</v>
       </c>
       <c r="C268" s="426"/>
-      <c r="D268" s="709" t="s">
+      <c r="D268" s="677" t="s">
         <v>28</v>
       </c>
-      <c r="E268" s="709"/>
-      <c r="F268" s="709"/>
-      <c r="G268" s="709"/>
-      <c r="H268" s="709"/>
-      <c r="I268" s="709"/>
-      <c r="J268" s="709"/>
-      <c r="K268" s="709"/>
-      <c r="L268" s="709"/>
+      <c r="E268" s="677"/>
+      <c r="F268" s="677"/>
+      <c r="G268" s="677"/>
+      <c r="H268" s="677"/>
+      <c r="I268" s="677"/>
+      <c r="J268" s="677"/>
+      <c r="K268" s="677"/>
+      <c r="L268" s="677"/>
       <c r="M268" s="114"/>
       <c r="N268" s="143" t="s">
         <v>235</v>
@@ -19917,17 +19917,17 @@
         <v>11</v>
       </c>
       <c r="C269" s="426"/>
-      <c r="D269" s="709" t="s">
+      <c r="D269" s="677" t="s">
         <v>28</v>
       </c>
-      <c r="E269" s="709"/>
-      <c r="F269" s="709"/>
-      <c r="G269" s="709"/>
-      <c r="H269" s="709"/>
-      <c r="I269" s="709"/>
-      <c r="J269" s="709"/>
-      <c r="K269" s="709"/>
-      <c r="L269" s="709"/>
+      <c r="E269" s="677"/>
+      <c r="F269" s="677"/>
+      <c r="G269" s="677"/>
+      <c r="H269" s="677"/>
+      <c r="I269" s="677"/>
+      <c r="J269" s="677"/>
+      <c r="K269" s="677"/>
+      <c r="L269" s="677"/>
       <c r="M269" s="114"/>
       <c r="N269" s="143" t="s">
         <v>235</v>
@@ -19948,17 +19948,17 @@
         <v>479</v>
       </c>
       <c r="C270" s="265"/>
-      <c r="D270" s="709" t="s">
+      <c r="D270" s="677" t="s">
         <v>28</v>
       </c>
-      <c r="E270" s="709"/>
-      <c r="F270" s="709"/>
-      <c r="G270" s="709"/>
-      <c r="H270" s="709"/>
-      <c r="I270" s="709"/>
-      <c r="J270" s="709"/>
-      <c r="K270" s="709"/>
-      <c r="L270" s="709"/>
+      <c r="E270" s="677"/>
+      <c r="F270" s="677"/>
+      <c r="G270" s="677"/>
+      <c r="H270" s="677"/>
+      <c r="I270" s="677"/>
+      <c r="J270" s="677"/>
+      <c r="K270" s="677"/>
+      <c r="L270" s="677"/>
       <c r="M270" s="100"/>
       <c r="N270" s="143" t="s">
         <v>235</v>
@@ -19979,17 +19979,17 @@
         <v>478</v>
       </c>
       <c r="C271" s="99"/>
-      <c r="D271" s="709" t="s">
+      <c r="D271" s="677" t="s">
         <v>28</v>
       </c>
-      <c r="E271" s="709"/>
-      <c r="F271" s="709"/>
-      <c r="G271" s="709"/>
-      <c r="H271" s="709"/>
-      <c r="I271" s="709"/>
-      <c r="J271" s="709"/>
-      <c r="K271" s="709"/>
-      <c r="L271" s="709"/>
+      <c r="E271" s="677"/>
+      <c r="F271" s="677"/>
+      <c r="G271" s="677"/>
+      <c r="H271" s="677"/>
+      <c r="I271" s="677"/>
+      <c r="J271" s="677"/>
+      <c r="K271" s="677"/>
+      <c r="L271" s="677"/>
       <c r="M271" s="148"/>
       <c r="N271" s="373"/>
       <c r="O271" s="373"/>
@@ -20033,17 +20033,17 @@
         <v>478</v>
       </c>
       <c r="C272" s="99"/>
-      <c r="D272" s="709" t="s">
+      <c r="D272" s="677" t="s">
         <v>28</v>
       </c>
-      <c r="E272" s="709"/>
-      <c r="F272" s="709"/>
-      <c r="G272" s="709"/>
-      <c r="H272" s="709"/>
-      <c r="I272" s="709"/>
-      <c r="J272" s="709"/>
-      <c r="K272" s="709"/>
-      <c r="L272" s="709"/>
+      <c r="E272" s="677"/>
+      <c r="F272" s="677"/>
+      <c r="G272" s="677"/>
+      <c r="H272" s="677"/>
+      <c r="I272" s="677"/>
+      <c r="J272" s="677"/>
+      <c r="K272" s="677"/>
+      <c r="L272" s="677"/>
       <c r="M272" s="148"/>
       <c r="N272" s="373"/>
       <c r="O272" s="373"/>
@@ -20087,17 +20087,17 @@
         <v>508</v>
       </c>
       <c r="C273" s="99"/>
-      <c r="D273" s="709" t="s">
+      <c r="D273" s="677" t="s">
         <v>28</v>
       </c>
-      <c r="E273" s="709"/>
-      <c r="F273" s="709"/>
-      <c r="G273" s="709"/>
-      <c r="H273" s="709"/>
-      <c r="I273" s="709"/>
-      <c r="J273" s="709"/>
-      <c r="K273" s="709"/>
-      <c r="L273" s="709"/>
+      <c r="E273" s="677"/>
+      <c r="F273" s="677"/>
+      <c r="G273" s="677"/>
+      <c r="H273" s="677"/>
+      <c r="I273" s="677"/>
+      <c r="J273" s="677"/>
+      <c r="K273" s="677"/>
+      <c r="L273" s="677"/>
       <c r="M273" s="148"/>
       <c r="N273" s="373"/>
       <c r="O273" s="373"/>
@@ -20134,10 +20134,10 @@
       <c r="AT273" s="555"/>
     </row>
     <row r="274" spans="1:46" s="415" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="673" t="s">
+      <c r="A274" s="705" t="s">
         <v>684</v>
       </c>
-      <c r="B274" s="674"/>
+      <c r="B274" s="706"/>
       <c r="C274" s="426"/>
       <c r="D274" s="420"/>
       <c r="E274" s="420"/>
@@ -20191,17 +20191,17 @@
         <v>57</v>
       </c>
       <c r="C275" s="426"/>
-      <c r="D275" s="709" t="s">
+      <c r="D275" s="677" t="s">
         <v>28</v>
       </c>
-      <c r="E275" s="709"/>
-      <c r="F275" s="709"/>
-      <c r="G275" s="709"/>
-      <c r="H275" s="709"/>
-      <c r="I275" s="709"/>
-      <c r="J275" s="709"/>
-      <c r="K275" s="709"/>
-      <c r="L275" s="709"/>
+      <c r="E275" s="677"/>
+      <c r="F275" s="677"/>
+      <c r="G275" s="677"/>
+      <c r="H275" s="677"/>
+      <c r="I275" s="677"/>
+      <c r="J275" s="677"/>
+      <c r="K275" s="677"/>
+      <c r="L275" s="677"/>
       <c r="M275" s="114"/>
       <c r="N275" s="143" t="s">
         <v>235</v>
@@ -20222,17 +20222,17 @@
         <v>508</v>
       </c>
       <c r="C276" s="426"/>
-      <c r="D276" s="709" t="s">
+      <c r="D276" s="677" t="s">
         <v>28</v>
       </c>
-      <c r="E276" s="709"/>
-      <c r="F276" s="709"/>
-      <c r="G276" s="709"/>
-      <c r="H276" s="709"/>
-      <c r="I276" s="709"/>
-      <c r="J276" s="709"/>
-      <c r="K276" s="709"/>
-      <c r="L276" s="709"/>
+      <c r="E276" s="677"/>
+      <c r="F276" s="677"/>
+      <c r="G276" s="677"/>
+      <c r="H276" s="677"/>
+      <c r="I276" s="677"/>
+      <c r="J276" s="677"/>
+      <c r="K276" s="677"/>
+      <c r="L276" s="677"/>
       <c r="M276" s="114"/>
       <c r="N276" s="143" t="s">
         <v>235</v>
@@ -20253,17 +20253,17 @@
         <v>57</v>
       </c>
       <c r="C277" s="426"/>
-      <c r="D277" s="709" t="s">
+      <c r="D277" s="677" t="s">
         <v>28</v>
       </c>
-      <c r="E277" s="709"/>
-      <c r="F277" s="709"/>
-      <c r="G277" s="709"/>
-      <c r="H277" s="709"/>
-      <c r="I277" s="709"/>
-      <c r="J277" s="709"/>
-      <c r="K277" s="709"/>
-      <c r="L277" s="709"/>
+      <c r="E277" s="677"/>
+      <c r="F277" s="677"/>
+      <c r="G277" s="677"/>
+      <c r="H277" s="677"/>
+      <c r="I277" s="677"/>
+      <c r="J277" s="677"/>
+      <c r="K277" s="677"/>
+      <c r="L277" s="677"/>
       <c r="M277" s="114"/>
       <c r="N277" s="143" t="s">
         <v>235</v>
@@ -20284,17 +20284,17 @@
         <v>508</v>
       </c>
       <c r="C278" s="426"/>
-      <c r="D278" s="709" t="s">
+      <c r="D278" s="677" t="s">
         <v>28</v>
       </c>
-      <c r="E278" s="709"/>
-      <c r="F278" s="709"/>
-      <c r="G278" s="709"/>
-      <c r="H278" s="709"/>
-      <c r="I278" s="709"/>
-      <c r="J278" s="709"/>
-      <c r="K278" s="709"/>
-      <c r="L278" s="709"/>
+      <c r="E278" s="677"/>
+      <c r="F278" s="677"/>
+      <c r="G278" s="677"/>
+      <c r="H278" s="677"/>
+      <c r="I278" s="677"/>
+      <c r="J278" s="677"/>
+      <c r="K278" s="677"/>
+      <c r="L278" s="677"/>
       <c r="M278" s="114"/>
       <c r="N278" s="143" t="s">
         <v>235</v>
@@ -20315,17 +20315,17 @@
         <v>57</v>
       </c>
       <c r="C279" s="426"/>
-      <c r="D279" s="709" t="s">
+      <c r="D279" s="677" t="s">
         <v>28</v>
       </c>
-      <c r="E279" s="709"/>
-      <c r="F279" s="709"/>
-      <c r="G279" s="709"/>
-      <c r="H279" s="709"/>
-      <c r="I279" s="709"/>
-      <c r="J279" s="709"/>
-      <c r="K279" s="709"/>
-      <c r="L279" s="709"/>
+      <c r="E279" s="677"/>
+      <c r="F279" s="677"/>
+      <c r="G279" s="677"/>
+      <c r="H279" s="677"/>
+      <c r="I279" s="677"/>
+      <c r="J279" s="677"/>
+      <c r="K279" s="677"/>
+      <c r="L279" s="677"/>
       <c r="M279" s="114"/>
       <c r="N279" s="143" t="s">
         <v>235</v>
@@ -20346,17 +20346,17 @@
         <v>508</v>
       </c>
       <c r="C280" s="271"/>
-      <c r="D280" s="709" t="s">
+      <c r="D280" s="677" t="s">
         <v>28</v>
       </c>
-      <c r="E280" s="709"/>
-      <c r="F280" s="709"/>
-      <c r="G280" s="709"/>
-      <c r="H280" s="709"/>
-      <c r="I280" s="709"/>
-      <c r="J280" s="709"/>
-      <c r="K280" s="709"/>
-      <c r="L280" s="709"/>
+      <c r="E280" s="677"/>
+      <c r="F280" s="677"/>
+      <c r="G280" s="677"/>
+      <c r="H280" s="677"/>
+      <c r="I280" s="677"/>
+      <c r="J280" s="677"/>
+      <c r="K280" s="677"/>
+      <c r="L280" s="677"/>
       <c r="M280" s="114"/>
       <c r="N280" s="143" t="s">
         <v>235</v>
@@ -28391,42 +28391,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D270:L270"/>
-    <mergeCell ref="D271:L271"/>
-    <mergeCell ref="D272:L272"/>
-    <mergeCell ref="D279:L279"/>
-    <mergeCell ref="D280:L280"/>
-    <mergeCell ref="D275:L275"/>
-    <mergeCell ref="D276:L276"/>
-    <mergeCell ref="D277:L277"/>
-    <mergeCell ref="D278:L278"/>
-    <mergeCell ref="D273:L273"/>
-    <mergeCell ref="D268:L268"/>
-    <mergeCell ref="D269:L269"/>
-    <mergeCell ref="D244:L244"/>
-    <mergeCell ref="D245:L245"/>
-    <mergeCell ref="D242:L242"/>
-    <mergeCell ref="D243:L243"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A5:B8"/>
-    <mergeCell ref="G232:L232"/>
-    <mergeCell ref="M262:M263"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="M73:M83"/>
-    <mergeCell ref="M54:M67"/>
-    <mergeCell ref="G233:L233"/>
-    <mergeCell ref="G239:L239"/>
-    <mergeCell ref="G235:L235"/>
-    <mergeCell ref="G240:L240"/>
-    <mergeCell ref="G241:L241"/>
-    <mergeCell ref="G236:L236"/>
     <mergeCell ref="A139:B139"/>
     <mergeCell ref="A274:B274"/>
     <mergeCell ref="A92:L92"/>
@@ -28443,6 +28407,42 @@
     <mergeCell ref="G231:L231"/>
     <mergeCell ref="G230:L230"/>
     <mergeCell ref="G234:L234"/>
+    <mergeCell ref="G232:L232"/>
+    <mergeCell ref="M262:M263"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="M73:M83"/>
+    <mergeCell ref="M54:M67"/>
+    <mergeCell ref="G233:L233"/>
+    <mergeCell ref="G239:L239"/>
+    <mergeCell ref="G235:L235"/>
+    <mergeCell ref="G240:L240"/>
+    <mergeCell ref="G241:L241"/>
+    <mergeCell ref="G236:L236"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A5:B8"/>
+    <mergeCell ref="D268:L268"/>
+    <mergeCell ref="D269:L269"/>
+    <mergeCell ref="D244:L244"/>
+    <mergeCell ref="D245:L245"/>
+    <mergeCell ref="D242:L242"/>
+    <mergeCell ref="D243:L243"/>
+    <mergeCell ref="D270:L270"/>
+    <mergeCell ref="D271:L271"/>
+    <mergeCell ref="D272:L272"/>
+    <mergeCell ref="D279:L279"/>
+    <mergeCell ref="D280:L280"/>
+    <mergeCell ref="D275:L275"/>
+    <mergeCell ref="D276:L276"/>
+    <mergeCell ref="D277:L277"/>
+    <mergeCell ref="D278:L278"/>
+    <mergeCell ref="D273:L273"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" location="'Tumor location'!A1" display="LIST"/>
@@ -28532,10 +28532,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
@@ -28631,10 +28631,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -28874,10 +28874,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -28990,10 +28990,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -29059,10 +29059,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
@@ -29148,10 +29148,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -29239,10 +29239,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="711" t="s">
+      <c r="A1" s="717" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="711"/>
+      <c r="B1" s="717"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="392" t="s">
@@ -29346,24 +29346,24 @@
       <c r="A1" s="601"/>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="718" t="s">
+      <c r="A2" s="724" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="719"/>
-      <c r="C2" s="719"/>
-      <c r="D2" s="719"/>
-      <c r="E2" s="719"/>
-      <c r="F2" s="720"/>
+      <c r="B2" s="725"/>
+      <c r="C2" s="725"/>
+      <c r="D2" s="725"/>
+      <c r="E2" s="725"/>
+      <c r="F2" s="726"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="712" t="s">
+      <c r="A3" s="718" t="s">
         <v>498</v>
       </c>
-      <c r="B3" s="713"/>
-      <c r="C3" s="713"/>
-      <c r="D3" s="713"/>
-      <c r="E3" s="713"/>
-      <c r="F3" s="714"/>
+      <c r="B3" s="719"/>
+      <c r="C3" s="719"/>
+      <c r="D3" s="719"/>
+      <c r="E3" s="719"/>
+      <c r="F3" s="720"/>
     </row>
     <row r="4" spans="1:11" s="600" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="571" t="s">
@@ -29386,14 +29386,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="715" t="s">
+      <c r="A5" s="721" t="s">
         <v>501</v>
       </c>
-      <c r="B5" s="716"/>
-      <c r="C5" s="716"/>
-      <c r="D5" s="716"/>
-      <c r="E5" s="716"/>
-      <c r="F5" s="717"/>
+      <c r="B5" s="722"/>
+      <c r="C5" s="722"/>
+      <c r="D5" s="722"/>
+      <c r="E5" s="722"/>
+      <c r="F5" s="723"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="562" t="s">
@@ -29420,14 +29420,14 @@
       <c r="F7" s="564"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="715" t="s">
+      <c r="A8" s="721" t="s">
         <v>502</v>
       </c>
-      <c r="B8" s="716"/>
-      <c r="C8" s="716"/>
-      <c r="D8" s="716"/>
-      <c r="E8" s="716"/>
-      <c r="F8" s="717"/>
+      <c r="B8" s="722"/>
+      <c r="C8" s="722"/>
+      <c r="D8" s="722"/>
+      <c r="E8" s="722"/>
+      <c r="F8" s="723"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="562" t="s">
@@ -29490,34 +29490,34 @@
       <c r="K13" s="351"/>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="721" t="s">
+      <c r="A14" s="727" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="722"/>
-      <c r="C14" s="722"/>
-      <c r="D14" s="722"/>
-      <c r="E14" s="722"/>
-      <c r="F14" s="722"/>
-      <c r="G14" s="722"/>
-      <c r="H14" s="722"/>
-      <c r="I14" s="722"/>
-      <c r="J14" s="722"/>
-      <c r="K14" s="723"/>
+      <c r="B14" s="728"/>
+      <c r="C14" s="728"/>
+      <c r="D14" s="728"/>
+      <c r="E14" s="728"/>
+      <c r="F14" s="728"/>
+      <c r="G14" s="728"/>
+      <c r="H14" s="728"/>
+      <c r="I14" s="728"/>
+      <c r="J14" s="728"/>
+      <c r="K14" s="729"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="712" t="s">
+      <c r="A15" s="718" t="s">
         <v>503</v>
       </c>
-      <c r="B15" s="713"/>
-      <c r="C15" s="713"/>
-      <c r="D15" s="713"/>
-      <c r="E15" s="713"/>
-      <c r="F15" s="713"/>
-      <c r="G15" s="713"/>
-      <c r="H15" s="713"/>
-      <c r="I15" s="713"/>
-      <c r="J15" s="713"/>
-      <c r="K15" s="714"/>
+      <c r="B15" s="719"/>
+      <c r="C15" s="719"/>
+      <c r="D15" s="719"/>
+      <c r="E15" s="719"/>
+      <c r="F15" s="719"/>
+      <c r="G15" s="719"/>
+      <c r="H15" s="719"/>
+      <c r="I15" s="719"/>
+      <c r="J15" s="719"/>
+      <c r="K15" s="720"/>
     </row>
     <row r="16" spans="1:11" s="600" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="571" t="s">
@@ -29555,19 +29555,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="715" t="s">
+      <c r="A17" s="721" t="s">
         <v>501</v>
       </c>
-      <c r="B17" s="716"/>
-      <c r="C17" s="716"/>
-      <c r="D17" s="716"/>
-      <c r="E17" s="716"/>
-      <c r="F17" s="716"/>
-      <c r="G17" s="716"/>
-      <c r="H17" s="716"/>
-      <c r="I17" s="716"/>
-      <c r="J17" s="716"/>
-      <c r="K17" s="717"/>
+      <c r="B17" s="722"/>
+      <c r="C17" s="722"/>
+      <c r="D17" s="722"/>
+      <c r="E17" s="722"/>
+      <c r="F17" s="722"/>
+      <c r="G17" s="722"/>
+      <c r="H17" s="722"/>
+      <c r="I17" s="722"/>
+      <c r="J17" s="722"/>
+      <c r="K17" s="723"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="562" t="s">
@@ -29774,19 +29774,19 @@
       <c r="K29" s="567"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="715" t="s">
+      <c r="A30" s="721" t="s">
         <v>502</v>
       </c>
-      <c r="B30" s="716"/>
-      <c r="C30" s="716"/>
-      <c r="D30" s="716"/>
-      <c r="E30" s="716"/>
-      <c r="F30" s="716"/>
-      <c r="G30" s="716"/>
-      <c r="H30" s="716"/>
-      <c r="I30" s="716"/>
-      <c r="J30" s="716"/>
-      <c r="K30" s="717"/>
+      <c r="B30" s="722"/>
+      <c r="C30" s="722"/>
+      <c r="D30" s="722"/>
+      <c r="E30" s="722"/>
+      <c r="F30" s="722"/>
+      <c r="G30" s="722"/>
+      <c r="H30" s="722"/>
+      <c r="I30" s="722"/>
+      <c r="J30" s="722"/>
+      <c r="K30" s="723"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="562" t="s">
@@ -30030,10 +30030,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="194" t="s">
@@ -30121,10 +30121,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
@@ -30206,10 +30206,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="194" t="s">
@@ -30273,10 +30273,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -30357,10 +30357,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -30467,10 +30467,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -30534,10 +30534,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -30593,10 +30593,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -30652,10 +30652,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -30716,8 +30716,8 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="724"/>
-      <c r="B10" s="724"/>
+      <c r="A10" s="730"/>
+      <c r="B10" s="730"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
@@ -30793,10 +30793,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -30879,10 +30879,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -31120,10 +31120,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -31223,10 +31223,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
       <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -31294,10 +31294,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="392" t="s">
@@ -31365,10 +31365,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
@@ -31436,10 +31436,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -31512,10 +31512,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -31604,10 +31604,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="129" t="s">
@@ -31707,10 +31707,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="226" t="s">
@@ -31806,10 +31806,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="226" t="s">
@@ -31902,10 +31902,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="226" t="s">
@@ -32006,10 +32006,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="234" t="s">
@@ -32105,10 +32105,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="234" t="s">
@@ -32201,10 +32201,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="241" t="s">
@@ -32302,10 +32302,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="177" t="s">
@@ -32377,10 +32377,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="249" t="s">
@@ -32477,10 +32477,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="249" t="s">
@@ -32585,10 +32585,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="249" t="s">
@@ -32689,10 +32689,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>693</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="249" t="s">
@@ -32793,10 +32793,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="249" t="s">
@@ -32901,10 +32901,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="249" t="s">
@@ -33005,10 +33005,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="296" t="s">
@@ -33064,10 +33064,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="303" t="s">
@@ -33171,10 +33171,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="311" t="s">
@@ -33230,10 +33230,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="315" t="s">
@@ -33299,10 +33299,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="129" t="s">
@@ -33363,10 +33363,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="321" t="s">
@@ -33446,10 +33446,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="327" t="s">
@@ -33537,10 +33537,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="333" t="s">
@@ -33604,10 +33604,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="337" t="s">
@@ -33671,10 +33671,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="341" t="s">
@@ -33746,10 +33746,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="375" t="s">
@@ -33817,10 +33817,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="381" t="s">
@@ -33896,10 +33896,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="387" t="s">
@@ -33967,10 +33967,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="392" t="s">
@@ -34046,10 +34046,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="392" t="s">
@@ -34124,10 +34124,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="162" t="s">
@@ -34183,10 +34183,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="392" t="s">
@@ -34255,10 +34255,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="392" t="s">
@@ -34331,13 +34331,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="725" t="s">
+      <c r="A1" s="731" t="s">
         <v>558</v>
       </c>
-      <c r="B1" s="726"/>
-      <c r="C1" s="726"/>
-      <c r="D1" s="726"/>
-      <c r="E1" s="727"/>
+      <c r="B1" s="732"/>
+      <c r="C1" s="732"/>
+      <c r="D1" s="732"/>
+      <c r="E1" s="733"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="621" t="s">
@@ -34621,8 +34621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34635,13 +34635,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="725" t="s">
-        <v>558</v>
-      </c>
-      <c r="B1" s="726"/>
-      <c r="C1" s="726"/>
-      <c r="D1" s="726"/>
-      <c r="E1" s="727"/>
+      <c r="A1" s="731" t="s">
+        <v>557</v>
+      </c>
+      <c r="B1" s="732"/>
+      <c r="C1" s="732"/>
+      <c r="D1" s="732"/>
+      <c r="E1" s="733"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="621" t="s">
@@ -35003,16 +35003,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="728" t="s">
+      <c r="A1" s="734" t="s">
         <v>602</v>
       </c>
-      <c r="B1" s="728"/>
-      <c r="C1" s="728"/>
-      <c r="D1" s="728"/>
-      <c r="E1" s="728"/>
-      <c r="F1" s="728"/>
-      <c r="G1" s="728"/>
-      <c r="H1" s="728"/>
+      <c r="B1" s="734"/>
+      <c r="C1" s="734"/>
+      <c r="D1" s="734"/>
+      <c r="E1" s="734"/>
+      <c r="F1" s="734"/>
+      <c r="G1" s="734"/>
+      <c r="H1" s="734"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="638"/>
@@ -35735,14 +35735,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="728" t="s">
+      <c r="A1" s="734" t="s">
         <v>636</v>
       </c>
-      <c r="B1" s="728"/>
-      <c r="C1" s="728"/>
-      <c r="D1" s="728"/>
-      <c r="E1" s="728"/>
-      <c r="F1" s="728"/>
+      <c r="B1" s="734"/>
+      <c r="C1" s="734"/>
+      <c r="D1" s="734"/>
+      <c r="E1" s="734"/>
+      <c r="F1" s="734"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="648"/>
@@ -35866,13 +35866,13 @@
       <c r="A8" s="653" t="s">
         <v>667</v>
       </c>
-      <c r="B8" s="729" t="s">
+      <c r="B8" s="735" t="s">
         <v>668</v>
       </c>
-      <c r="C8" s="729"/>
-      <c r="D8" s="729"/>
-      <c r="E8" s="729"/>
-      <c r="F8" s="729"/>
+      <c r="C8" s="735"/>
+      <c r="D8" s="735"/>
+      <c r="E8" s="735"/>
+      <c r="F8" s="735"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="649" t="s">
@@ -35905,10 +35905,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
@@ -36000,10 +36000,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -36068,10 +36068,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="710" t="s">
+      <c r="A1" s="716" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="710"/>
+      <c r="B1" s="716"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
